--- a/artfynd/A 17952-2022 artfynd.xlsx
+++ b/artfynd/A 17952-2022 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,58 +680,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>126946023</v>
+        <v>131092986</v>
       </c>
       <c r="B2" t="n">
-        <v>42998</v>
+        <v>97878</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>101688</v>
+        <v>221945</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kattunvisslare</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pyrgus alveus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hübner, 1803)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>friflygande</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Militärvägen , Upl</t>
+          <t>254, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>694575</v>
+        <v>693755</v>
       </c>
       <c r="R2" t="n">
-        <v>6662594</v>
+        <v>6663402</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -758,22 +745,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>08:25</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>08:25</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -782,22 +759,142 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
+          <t>Anton Ringbom</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Anton Ringbom, Alexandra Östberg</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>126946023</v>
+      </c>
+      <c r="B3" t="n">
+        <v>42998</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>101688</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Kattunvisslare</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pyrgus alveus</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Hübner, 1803)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>friflygande</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Militärvägen , Upl</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>694575</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6662594</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Edebo</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2025-07-26</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>08:25</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2025-07-26</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>08:25</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
           <t>Tomas Johansson</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
+      <c r="AX3" t="inlineStr">
         <is>
           <t>Tomas Johansson</t>
         </is>
       </c>
-      <c r="AY2" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 17952-2022 artfynd.xlsx
+++ b/artfynd/A 17952-2022 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131092986</v>
       </c>
       <c r="B2" t="n">
-        <v>97878</v>
+        <v>97879</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 17952-2022 artfynd.xlsx
+++ b/artfynd/A 17952-2022 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131092986</v>
       </c>
       <c r="B2" t="n">
-        <v>97879</v>
+        <v>97880</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
